--- a/biology/Botanique/Nombre_d'équilibre_de_l'endosperme/Nombre_d'équilibre_de_l'endosperme.xlsx
+++ b/biology/Botanique/Nombre_d'équilibre_de_l'endosperme/Nombre_d'équilibre_de_l'endosperme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nombre_d%27%C3%A9quilibre_de_l%27endosperme</t>
+          <t>Nombre_d'équilibre_de_l'endosperme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nombre d'équilibre de l'endosperme ou EBN (acronyme de Endosperm balance number) est une notion développée au début des années 1980 (Johnston et al, 1980) dans l'étude des espèces de Solanum tubéreuses (pommes de terre sauvages), pour caractériser le génome des différentes espèces. Ce nombre, variant de 1 à 4, est déterminé empiriquement par des croisements avec des espèces de référence. Il permet de prévoir les hybridations inter- ou intra-spécifiques effectivement possibles et peut être considéré comme la ploïdie effective, indépendamment de la ploïdie réelle. Les croisements possibles sont ceux réalisés entre espèces ayant le même EBN.
 Lors de la double fécondation qui caractérise les angiospermes, un des deux noyaux haploïdes du gamète mâle féconde la cellule polaire diploïde du gamétophyte femelle pour donner naissance à l'albumen (ou endosperme), tissu nutritif indispensable au développement de l'embryon. Le génome de ce tissu triploïde se caractérise par un ratio maternel/paternel égal à 2:1 qui est normalement assuré lorsque les parents ont un niveau de ploïdie identique.  
